--- a/docs/Lab01_ReviewReport.xlsx
+++ b/docs/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mpp\pcir2589--VSS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768BCEF-67F9-4B15-85DB-782DF07EA48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +122,35 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Pintea Cristian-Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrusca Alexandru </t>
+  </si>
+  <si>
+    <t>Petrusca Alexandru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,78 +315,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +481,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,29 +725,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -698,7 +758,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
@@ -713,14 +773,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -731,10 +795,14 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
@@ -748,7 +816,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -756,14 +824,14 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -785,7 +853,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -794,7 +862,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -803,7 +871,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -812,7 +880,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -821,7 +889,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -830,7 +898,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -839,7 +907,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -848,7 +916,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -857,7 +925,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -866,7 +934,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -875,7 +943,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -884,7 +952,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +961,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +970,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +979,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,10 +988,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -945,28 +1013,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -977,7 +1045,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
@@ -992,14 +1060,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1081,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1095,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1035,14 +1103,14 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1064,7 +1132,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1073,7 +1141,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1082,7 +1150,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1159,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1168,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1177,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1186,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1195,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1204,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1213,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1222,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1231,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1240,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1249,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1258,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1267,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1276,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1243,19 +1311,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1266,7 +1334,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
@@ -1281,14 +1349,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1370,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1384,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1324,14 +1392,14 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1353,7 +1421,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1362,7 +1430,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1371,7 +1439,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1380,7 +1448,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1457,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1466,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1475,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1484,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +1493,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +1502,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +1511,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1520,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1529,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1538,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1547,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1556,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1565,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1574,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1583,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1592,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1601,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1558,30 +1626,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1592,7 +1660,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
@@ -1607,14 +1675,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
@@ -1623,10 +1695,14 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1714,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1646,7 +1722,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +1748,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +1758,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +1768,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +1778,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +1788,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +1798,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +1808,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +1818,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +1828,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +1838,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +1848,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +1858,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +1868,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +1878,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +1888,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +1898,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +1908,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +1918,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +1928,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +1938,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,10 +1948,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
         <v>32</v>
       </c>

--- a/docs/Lab01_ReviewReport.xlsx
+++ b/docs/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mpp\pcir2589--VSS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768BCEF-67F9-4B15-85DB-782DF07EA48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D53791-690D-4931-ABD8-D26EDD69EC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -131,19 +131,206 @@
   </si>
   <si>
     <t>Petrusca Alexandru</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>LIPSA DETALIERE PERSOANA ACTIVA.</t>
+  </si>
+  <si>
+    <t>LA ADAUGARE NU SE SPECIFICA INTRODUCEREA CAMPULUI REPETITIV</t>
+  </si>
+  <si>
+    <t>SPECIFICAREA TIPULUI APLICATIEI(WEB,MOBILE..)</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>CLASA TASKLIST SI DERIVATELE ACESTEIA AR TREBUI SA FIE INTR-UN PACHET REPOSITORY</t>
+  </si>
+  <si>
+    <t>LIPSESTE METODA DE UPDATE PENTRU UN TASK</t>
+  </si>
+  <si>
+    <t>NU EXISTA CLASE PENTRU VALIDARI SI ERROR HANDLING</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>TasksService/formTimeUnit</t>
+  </si>
+  <si>
+    <t>daca parametrul este &lt;0 atunci se va returna    "0-1"</t>
+  </si>
+  <si>
+    <t>TaskIO/readBinary</t>
+  </si>
+  <si>
+    <t>variabila fis este initializata cu null iar daca in block-ul try apare o eroare atunci in block-ul finally unde se executa fis.close() va aparea NULL POINTER EXCEPTION</t>
+  </si>
+  <si>
+    <t>TaskIO/writeBinary</t>
+  </si>
+  <si>
+    <t>variabila fos este initializata cu null iar daca in block-ul try apare o eroare atunci in block-ul finally unde se executa fos.close() va aparea NULL POINTER EXCEPTION</t>
+  </si>
+  <si>
+    <t>Possible NullPointerException</t>
+  </si>
+  <si>
+    <t>FileInputStream fis = null..... fis.close();</t>
+  </si>
+  <si>
+    <t>if(fis!=null) fis.close();</t>
+  </si>
+  <si>
+    <t>TaskIO, 97</t>
+  </si>
+  <si>
+    <t>TaskIO, 82</t>
+  </si>
+  <si>
+    <t>if(fos!=null) fos.close();</t>
+  </si>
+  <si>
+    <t>FileInputStream fos = null..... fos.close();</t>
+  </si>
+  <si>
+    <t>TaskIO,(80,94,124,301)</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating literal</t>
+  </si>
+  <si>
+    <t>log.error("IO exception reading or writing file");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     log.error(IOEXCEPTION_MESSAGE);</t>
+  </si>
+  <si>
+    <t>LinkedTaskList, 138</t>
+  </si>
+  <si>
+    <t>Unused private method</t>
+  </si>
+  <si>
+    <t>private void setTask(Task task) {
+            this.task = task;
+        }</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, 57</t>
+  </si>
+  <si>
+    <t>Remove this call to "equals"/ change this condition so that  it does not always evaluate to "false"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(task.equals(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(task==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +401,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -315,79 +514,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,11 +941,11 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -747,24 +957,24 @@
     <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -773,65 +983,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -845,42 +1055,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -889,7 +1123,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -898,7 +1132,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -907,7 +1141,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -916,7 +1150,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -925,7 +1159,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -934,7 +1168,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -943,7 +1177,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -952,7 +1186,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -961,7 +1195,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -970,7 +1204,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -979,7 +1213,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -988,10 +1222,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1020,10 +1254,10 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -1034,24 +1268,24 @@
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1060,57 +1294,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1124,33 +1366,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1159,7 +1419,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1168,7 +1428,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1177,7 +1437,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1186,7 +1446,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1195,7 +1455,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1204,7 +1464,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1213,7 +1473,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1222,7 +1482,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1231,7 +1491,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1240,7 +1500,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1249,7 +1509,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1258,7 +1518,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1267,7 +1527,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1276,10 +1536,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1307,11 +1567,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -1323,24 +1583,24 @@
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1349,57 +1609,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1413,33 +1681,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1448,7 +1734,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1457,7 +1743,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1466,7 +1752,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1475,7 +1761,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1484,7 +1770,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1493,7 +1779,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1502,7 +1788,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1511,7 +1797,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1520,7 +1806,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1529,7 +1815,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1538,7 +1824,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1547,7 +1833,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1556,7 +1842,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1565,7 +1851,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1574,7 +1860,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1583,7 +1869,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1592,7 +1878,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1601,10 +1887,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1632,11 +1918,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -1649,24 +1935,24 @@
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1675,54 +1961,54 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1739,57 +2025,95 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
+    <row r="14" spans="1:10" ht="86.4">
+      <c r="B14" s="40">
+        <f>B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1798,7 +2122,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1808,7 +2132,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1818,7 +2142,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1828,7 +2152,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1838,7 +2162,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1848,7 +2172,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1858,7 +2182,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1868,7 +2192,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1878,7 +2202,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1888,7 +2212,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1898,7 +2222,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1908,7 +2232,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1918,7 +2242,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1928,7 +2252,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1938,7 +2262,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1948,15 +2272,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6">
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/docs/Lab01_ReviewReport.xlsx
+++ b/docs/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mpp\pcir2589--VSS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D53791-690D-4931-ABD8-D26EDD69EC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61EBF8A-CE67-458E-B86B-CF241B3E3EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>R07</t>
-  </si>
-  <si>
-    <t>LIPSA DETALIERE PERSOANA ACTIVA.</t>
   </si>
   <si>
     <t>LA ADAUGARE NU SE SPECIFICA INTRODUCEREA CAMPULUI REPETITIV</t>
@@ -312,18 +309,28 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>LIPSA SPECIFICARE TIP DATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,90 +521,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -962,19 +970,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -998,10 +1006,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1016,10 +1024,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1031,15 +1039,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1066,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1080,8 +1088,8 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>42</v>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8">
@@ -1096,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1110,8 +1118,8 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>42</v>
+      <c r="E13" s="41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1273,19 +1281,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1298,7 +1306,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1309,14 +1317,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
@@ -1327,10 +1335,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1342,15 +1350,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1371,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8">
@@ -1386,13 +1394,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8">
@@ -1401,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1588,19 +1596,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1613,7 +1621,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1624,14 +1632,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
@@ -1642,10 +1650,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1657,15 +1665,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1686,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6">
@@ -1701,13 +1709,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="57.6">
@@ -1716,13 +1724,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1918,7 +1926,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1940,19 +1948,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1976,8 +1984,8 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1992,8 +2000,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2005,8 +2013,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -2030,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2">
@@ -2048,16 +2056,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2">
@@ -2066,16 +2074,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6">
@@ -2084,36 +2092,36 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="86.4">
-      <c r="B14" s="40">
+      <c r="B14" s="26">
         <f>B13+1</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="F14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="40">
+      <c r="B15" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2276,11 +2284,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
